--- a/doc/ue_class_property_function.xlsx
+++ b/doc/ue_class_property_function.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53DFAEB-22F2-49AA-8ED0-52D276E4FDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC90EB4-AAEB-40B3-BB9C-9FBE1EAE6799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="1" r:id="rId1"/>
     <sheet name="UClass " sheetId="3" r:id="rId2"/>
     <sheet name="Property" sheetId="4" r:id="rId3"/>
     <sheet name="UFunction" sheetId="2" r:id="rId4"/>
+    <sheet name="UFunction构造过程" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="245">
   <si>
     <t>生成原理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +301,532 @@
   </si>
   <si>
     <t>！！！这个里面就会根据参数信息，设置Ufunction里面的Propertys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class COREUOBJECT_API UClass : public UStruct</t>
+  </si>
+  <si>
+    <t>CLASS类内部包含了需要同步的属性和RPC列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** List of replication records */</t>
+  </si>
+  <si>
+    <t>TArray&lt;FRepRecord&gt; ClassReps;</t>
+  </si>
+  <si>
+    <t>/** List of network relevant fields (functions) */</t>
+  </si>
+  <si>
+    <t>TArray&lt;UField*&gt; NetFields;</t>
+  </si>
+  <si>
+    <t>需要同步的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPC函数列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** A cache of all functions by name that exist in a parent (superclass or interface) context */</t>
+  </si>
+  <si>
+    <t>mutable TMap&lt;FName, UFunction*&gt; SuperFuncMap;</t>
+  </si>
+  <si>
+    <t>初始化ClassReps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UClass::SetUpRuntimeReplicationData()</t>
+  </si>
+  <si>
+    <t>在该函数中，通过收集父类的ClassReps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要含FUNC_Net标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要含CPF_Net标志，表示需要同步的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (UClass* SuperClass = GetSuperClass())</t>
+  </si>
+  <si>
+    <t>SuperClass-&gt;SetUpRuntimeReplicationData();</t>
+  </si>
+  <si>
+    <t>ClassReps = SuperClass-&gt;ClassReps;</t>
+  </si>
+  <si>
+    <t>FirstOwnedClassRep = ClassReps.Num();</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>ClassReps.Empty();</t>
+  </si>
+  <si>
+    <t>FirstOwnedClassRep = 0;</t>
+  </si>
+  <si>
+    <t>收集父类的ClassReps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;FProperty*&gt; NetProperties;</t>
+  </si>
+  <si>
+    <t>for (TFieldIterator&lt;FField&gt; It(this, EFieldIteratorFlags::ExcludeSuper); It; ++It)</t>
+  </si>
+  <si>
+    <t>if (FProperty* Prop = CastField&lt;FProperty&gt;(*It))</t>
+  </si>
+  <si>
+    <t>if ((Prop-&gt;PropertyFlags &amp; CPF_Net) &amp;&amp; Prop-&gt;GetOwner&lt;UObject&gt;() == this)</t>
+  </si>
+  <si>
+    <t>NetProperties.Add(Prop);</t>
+  </si>
+  <si>
+    <t>遍历自身含CPF_NET的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！需要同步的属性列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for(TFieldIterator&lt;UField&gt; It(this,EFieldIteratorFlags::ExcludeSuper); It; ++It)</t>
+  </si>
+  <si>
+    <t>if (UFunction * Func = Cast&lt;UFunction&gt;(*It))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// When loading reflection data (e.g. from blueprints), we may have references to placeholder functions, or reflection data </t>
+  </si>
+  <si>
+    <t>// in children may be out of date. In that case we cannot enforce this check, but that is ok because reflection data will</t>
+  </si>
+  <si>
+    <t>// be regenerated by compile on load anyway:</t>
+  </si>
+  <si>
+    <t>const bool bCanCheck = (!GIsEditor &amp;&amp; !IsRunningCommandlet()) || !Func-&gt;HasAnyFlags(RF_WasLoaded);</t>
+  </si>
+  <si>
+    <t>check(!bCanCheck || (!Func-&gt;GetSuperFunction() || (Func-&gt;GetSuperFunction()-&gt;FunctionFlags&amp;FUNC_NetFuncFlags) == (Func-&gt;FunctionFlags&amp;FUNC_NetFuncFlags)));</t>
+  </si>
+  <si>
+    <t>if ((Func-&gt;FunctionFlags&amp;FUNC_Net) &amp;&amp; !Func-&gt;GetSuperFunction())</t>
+  </si>
+  <si>
+    <t>NetFields.Add(Func);</t>
+  </si>
+  <si>
+    <t>遍历自身含FUNC_NET的函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！RPC函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassReps.Reserve(ClassReps.Num() + NetProperties.Num());</t>
+  </si>
+  <si>
+    <t>for (int32 i = 0; i &lt; NetProperties.Num(); i++)</t>
+  </si>
+  <si>
+    <t>NetProperties[i]-&gt;RepIndex = ClassReps.Num();</t>
+  </si>
+  <si>
+    <t>for (int32 j = 0; j &lt; NetProperties[i]-&gt;ArrayDim; j++)</t>
+  </si>
+  <si>
+    <t>new(ClassReps)FRepRecord(NetProperties[i], j);</t>
+  </si>
+  <si>
+    <t>将上面收集的含NET的属性放入Classreps，包含了父类的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLASS内部的初始化，仅仅是收集自己的ClassReps和RPC函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！注意，这个时候的GetLifetimeReplicatedProps没有实际的用处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！只有等待FRepLayout::InitFromClass函数里面的GetLifetimeReplicatedProps才有用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在FRepLayout::InitFromClass函数里面的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先使用CLASS自己的ClassReps构造TArray&lt;FRepParentCmd&gt; Parents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在通过GetLifetimeReplicatedProps返回的设置，修饰各个属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！注意，这个同步的属性，除了定义的时候UPROPERTY(Replicated)，还可以通过在GetLifetimeReplicatedProps里面设置具体的标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如不同步，只给自己Owner同步等等的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体在FRepLayout::InitFromClass时生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性，定义时通过属性标志来设置是否同步，例如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPROPERTY(Replicated)</t>
+  </si>
+  <si>
+    <t>int m_a;</t>
+  </si>
+  <si>
+    <t>这个仅仅是设置同步，还可以在GetLifetimeReplicatedProps里面设置具体的标志：例如不同步，只给自己Owner同步等等参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在FRepLayout::InitFromClass时调用GetLifetimeReplicatedProps设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历其基类Ustruct中的ChildProperties列表，找到所有含CPF_Net标志，表示需要同步的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！注意，这里设置了属性的Reqindex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!同步属性的RepIndex是在UClass::SetUpRuntimeReplicationData()设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动运行时，注册所有类的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该函数内部会构造Function和Property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewClass-&gt;CreateLinkAndAddChildFunctionsToMap(Params.FunctionLinkArray, Params.NumFunctions);</t>
+  </si>
+  <si>
+    <t>创建UFunction函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConstructFProperties(NewClass, Params.PropertyArray, Params.NumProperties);</t>
+  </si>
+  <si>
+    <t>创建Property属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UClass* NewClass = Params.ClassNoRegisterFunc();</t>
+  </si>
+  <si>
+    <t>构造Uclass对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如下面的三个参数的FUNction为例：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动生成的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个参数的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建对应的Ufunction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建实现流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void ConstructUFunction(UFunction*&amp; OutFunction, const FFunctionParams&amp; Params)</t>
+  </si>
+  <si>
+    <t>先New一个Function对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UFunction* NewFunction;</t>
+  </si>
+  <si>
+    <t>if (Params.FunctionFlags &amp; FUNC_Delegate)</t>
+  </si>
+  <si>
+    <t>if (Params.OwningClassName == nullptr)</t>
+  </si>
+  <si>
+    <t>NewFunction = new (EC_InternalUseOnlyConstructor, Outer, UTF8_TO_TCHAR(Params.NameUTF8), Params.ObjectFlags) UDelegateFunction(</t>
+  </si>
+  <si>
+    <t>FObjectInitializer(),</t>
+  </si>
+  <si>
+    <t>Super,</t>
+  </si>
+  <si>
+    <t>Params.FunctionFlags,</t>
+  </si>
+  <si>
+    <t>Params.StructureSize</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>USparseDelegateFunction* NewSparseFunction = new (EC_InternalUseOnlyConstructor, Outer, UTF8_TO_TCHAR(Params.NameUTF8), Params.ObjectFlags) USparseDelegateFunction(</t>
+  </si>
+  <si>
+    <t>NewSparseFunction-&gt;OwningClassName = FName(Params.OwningClassName);</t>
+  </si>
+  <si>
+    <t>NewSparseFunction-&gt;DelegateName = FName(Params.DelegateName);</t>
+  </si>
+  <si>
+    <t>NewFunction = NewSparseFunction;</t>
+  </si>
+  <si>
+    <t>NewFunction = new (EC_InternalUseOnlyConstructor, Outer, UTF8_TO_TCHAR(Params.NameUTF8), Params.ObjectFlags) UFunction(</t>
+  </si>
+  <si>
+    <t>OutFunction = NewFunction;</t>
+  </si>
+  <si>
+    <t>设置Function的参数信息，注意，对应的参数都是Property，创建后存入了Function的里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConstructFProperties(NewFunction, Params.PropertyArray, Params.NumProperties);</t>
+  </si>
+  <si>
+    <t>在父类构造函数里面加入的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FProperty::Init()</t>
+  </si>
+  <si>
+    <t>OwnerField-&gt;AddCppProperty(this);</t>
+  </si>
+  <si>
+    <t>void UStruct::AddCppProperty(FProperty* Property)</t>
+  </si>
+  <si>
+    <t>Property-&gt;Next = ChildProperties;</t>
+  </si>
+  <si>
+    <t>ChildProperties = Property;</t>
+  </si>
+  <si>
+    <t>！！！对于Function来说，参数就是其属性信息，放在了ChileProperties里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据不同的类型，创建不同的Fproperty类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum class EPropertyGenFlags : uint32</t>
+  </si>
+  <si>
+    <t>None              = 0x00,</t>
+  </si>
+  <si>
+    <t>// First 5 bits are the property type</t>
+  </si>
+  <si>
+    <t>Byte              = 0x00,</t>
+  </si>
+  <si>
+    <t>Int8              = 0x01,</t>
+  </si>
+  <si>
+    <t>Int16             = 0x02,</t>
+  </si>
+  <si>
+    <t>Int               = 0x03,</t>
+  </si>
+  <si>
+    <t>Int64             = 0x04,</t>
+  </si>
+  <si>
+    <t>UInt16            = 0x05,</t>
+  </si>
+  <si>
+    <t>UInt32            = 0x06,</t>
+  </si>
+  <si>
+    <t>UInt64            = 0x07,</t>
+  </si>
+  <si>
+    <t>UnsizedInt        = 0x08,</t>
+  </si>
+  <si>
+    <t>UnsizedUInt       = 0x09,</t>
+  </si>
+  <si>
+    <t>Float             = 0x0A,</t>
+  </si>
+  <si>
+    <t>Double            = 0x0B,</t>
+  </si>
+  <si>
+    <t>Bool              = 0x0C,</t>
+  </si>
+  <si>
+    <t>SoftClass         = 0x0D,</t>
+  </si>
+  <si>
+    <t>WeakObject        = 0x0E,</t>
+  </si>
+  <si>
+    <t>LazyObject        = 0x0F,</t>
+  </si>
+  <si>
+    <t>SoftObject        = 0x10,</t>
+  </si>
+  <si>
+    <t>Class             = 0x11,</t>
+  </si>
+  <si>
+    <t>Object            = 0x12,</t>
+  </si>
+  <si>
+    <t>Interface         = 0x13,</t>
+  </si>
+  <si>
+    <t>Name              = 0x14,</t>
+  </si>
+  <si>
+    <t>Str               = 0x15,</t>
+  </si>
+  <si>
+    <t>Array             = 0x16,</t>
+  </si>
+  <si>
+    <t>Map               = 0x17,</t>
+  </si>
+  <si>
+    <t>Set               = 0x18,</t>
+  </si>
+  <si>
+    <t>Struct            = 0x19,</t>
+  </si>
+  <si>
+    <t>Delegate          = 0x1A,</t>
+  </si>
+  <si>
+    <t>InlineMulticastDelegate = 0x1B,</t>
+  </si>
+  <si>
+    <t>SparseMulticastDelegate = 0x1C,</t>
+  </si>
+  <si>
+    <t>Text              = 0x1D,</t>
+  </si>
+  <si>
+    <t>Enum              = 0x1E,</t>
+  </si>
+  <si>
+    <t>FieldPath         = 0x1F,</t>
+  </si>
+  <si>
+    <t>// Property-specific flags</t>
+  </si>
+  <si>
+    <t>NativeBool        = 0x20</t>
+  </si>
+  <si>
+    <t>case EPropertyGenFlags::Byte:</t>
+  </si>
+  <si>
+    <t>const FBytePropertyParams* Prop = (const FBytePropertyParams*)PropBase;</t>
+  </si>
+  <si>
+    <t>NewProp = new FByteProperty(Outer, UTF8_TO_TCHAR(Prop-&gt;NameUTF8), Prop-&gt;ObjectFlags, Prop-&gt;Offset, Prop-&gt;PropertyFlags, Prop-&gt;EnumFunc ? Prop-&gt;EnumFunc() : nullptr);</t>
+  </si>
+  <si>
+    <t>MetaDataArray = Prop-&gt;MetaDataArray;</t>
+  </si>
+  <si>
+    <t>NumMetaData   = Prop-&gt;NumMetaData;</t>
+  </si>
+  <si>
+    <t>break;</t>
+  </si>
+  <si>
+    <t>case EPropertyGenFlags::Int8:</t>
+  </si>
+  <si>
+    <t>const FInt8PropertyParams* Prop = (const FInt8PropertyParams*)PropBase;</t>
+  </si>
+  <si>
+    <t>NewProp = new FInt8Property(Outer, UTF8_TO_TCHAR(Prop-&gt;NameUTF8), Prop-&gt;ObjectFlags, Prop-&gt;Offset, Prop-&gt;PropertyFlags);</t>
+  </si>
+  <si>
+    <t>/** Pointer to start of linked list of child fields */</t>
+  </si>
+  <si>
+    <t>UField* Children;</t>
+  </si>
+  <si>
+    <t>FField* ChildProperties;</t>
+  </si>
+  <si>
+    <t>普通的Ufunction函数，在启动时加载所有CLASS的时候设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父类变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通的Fpeoperty，在启动时加载所有CLASS时设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -307,7 +834,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +865,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -359,10 +894,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -378,6 +914,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>427022</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>161164</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F11C6AFC-098D-EA05-68C0-325348C85D74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009775" y="4572000"/>
+          <a:ext cx="12819047" cy="6085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -665,12 +1250,587 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9A33B3-2D9A-4CB2-8C40-6491E04C4DDC}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:S102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="R6" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="I13" s="1"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="I14" s="1"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B27" s="3"/>
+      <c r="C27" t="s">
+        <v>239</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B28" s="3"/>
+      <c r="C28" t="s">
+        <v>240</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+      <c r="C30" t="s">
+        <v>239</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>241</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O39" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C40" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C41" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D44" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>102</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D70" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="G82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D87" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>130</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E92" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F94" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E95" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>2</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B101" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="M101" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -678,16 +1838,402 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06B0B91-BB96-431A-BEFE-EF1F659CA028}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:L129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="P132" sqref="P132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D16" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D99" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D102" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D103" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C107" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F108" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G109" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G110" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G113" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G114" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C115" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F116" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F117" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F119" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F120" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G121" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G122" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C124" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G125" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G126" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F128" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F129" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -695,8 +2241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12717C5C-F3BE-4556-B21A-A4B30C9A7A9B}">
   <dimension ref="B3:U119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="S64" sqref="S64"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1238,4 +2784,551 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3284C1E-FE86-422A-890E-58D67F363490}">
+  <dimension ref="A1:R107"/>
+  <sheetViews>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="65" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="H69" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="H70" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="H71" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="H72" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G73" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G77" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="H78" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="79" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="H79" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="H80" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="81" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="H81" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G82" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G83" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G84" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="85" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G85" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="88" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G91" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G92" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="93" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G93" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G94" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="95" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E96" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E97" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C99" s="2">
+        <v>2</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E99" s="3"/>
+      <c r="Q99" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q100" s="1"/>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="3"/>
+      <c r="F101" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q101" s="1"/>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="3"/>
+      <c r="G102" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="103" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="3"/>
+      <c r="Q103" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="104" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q104" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R105" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="106" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E106" t="s">
+        <v>183</v>
+      </c>
+      <c r="R106" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="107" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q107" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>